--- a/schliessanlagen-konfigurator/schliessanlagen-konfigurator/wwwroot/Orders/Schlüssel Discount OrderFile.xlsx
+++ b/schliessanlagen-konfigurator/schliessanlagen-konfigurator/wwwroot/Orders/Schlüssel Discount OrderFile.xlsx
@@ -878,7 +878,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
     <t>Schließplan</t>
   </si>
@@ -890,10 +890,10 @@
 übergeordneter Schlüssel &gt;</t>
   </si>
   <si>
+    <t>GeneralKey</t>
+  </si>
+  <si>
     <t>MamiKey</t>
-  </si>
-  <si>
-    <t>GeneralKey</t>
   </si>
   <si>
     <t>Messing matt vernickelt (MMVG)</t>
@@ -1057,13 +1057,16 @@
     <t>Not- und Gefahrenfunktion</t>
   </si>
   <si>
-    <t>X</t>
-  </si>
-  <si>
     <t>Biliard</t>
   </si>
   <si>
     <t>Freilauffunktion</t>
+  </si>
+  <si>
+    <t>Гараж</t>
+  </si>
+  <si>
+    <t/>
   </si>
 </sst>
 </file>
@@ -2790,16 +2793,13 @@
         <v>46</v>
       </c>
       <c r="M17" s="1">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="N17" s="1">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="O17" s="1">
         <v>1</v>
-      </c>
-      <c r="S17" s="1" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="18" ht="12.8">
@@ -2810,7 +2810,7 @@
         <v>2</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>44</v>
@@ -2819,23 +2819,42 @@
         <v>45</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M18" s="1">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="N18" s="1">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="O18" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="19" ht="12.8">
-      <c r="A19" s="39"/>
-      <c r="B19" s="39"/>
-      <c r="S19" s="1" t="s">
-        <v>47</v>
+      <c r="A19" s="39">
+        <v>3</v>
+      </c>
+      <c r="B19" s="39">
+        <v>3</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="M19" s="1">
+        <v>65</v>
+      </c>
+      <c r="N19" s="1">
+        <v>35</v>
       </c>
     </row>
     <row r="20" ht="12.8">

--- a/schliessanlagen-konfigurator/schliessanlagen-konfigurator/wwwroot/Orders/Schlüssel Discount OrderFile.xlsx
+++ b/schliessanlagen-konfigurator/schliessanlagen-konfigurator/wwwroot/Orders/Schlüssel Discount OrderFile.xlsx
@@ -878,7 +878,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
   <si>
     <t>Schließplan</t>
   </si>
@@ -1060,13 +1060,10 @@
     <t>Biliard</t>
   </si>
   <si>
-    <t>Freilauffunktion</t>
+    <t/>
   </si>
   <si>
     <t>Гараж</t>
-  </si>
-  <si>
-    <t/>
   </si>
 </sst>
 </file>
@@ -2796,7 +2793,7 @@
         <v>35</v>
       </c>
       <c r="N17" s="1">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="O17" s="1">
         <v>1</v>
@@ -2822,10 +2819,10 @@
         <v>48</v>
       </c>
       <c r="M18" s="1">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="N18" s="1">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="O18" s="1">
         <v>1</v>
@@ -2848,13 +2845,13 @@
         <v>45</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="M19" s="1">
+        <v>55</v>
+      </c>
+      <c r="N19" s="1">
         <v>65</v>
-      </c>
-      <c r="N19" s="1">
-        <v>35</v>
       </c>
     </row>
     <row r="20" ht="12.8">
